--- a/docs/Envelope-Upload-Template.xlsx
+++ b/docs/Envelope-Upload-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ChurchRegister\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A711D-38AA-4E6A-90AD-52E17C09E51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA42936-09FB-48FC-B134-100B11F82B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{47F8AE6A-1A07-483D-912A-149763095AFE}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>46026</v>
+        <v>46075</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
